--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.25485233333333</v>
+        <v>68.39263433333333</v>
       </c>
       <c r="H2">
-        <v>177.764557</v>
+        <v>205.177903</v>
       </c>
       <c r="I2">
-        <v>0.2826627756245408</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="J2">
-        <v>0.2826627756245408</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>65.548724983623</v>
+        <v>76.465290534234</v>
       </c>
       <c r="R2">
-        <v>589.938524852607</v>
+        <v>688.1876148081061</v>
       </c>
       <c r="S2">
-        <v>0.005125062315651954</v>
+        <v>0.006422863959685538</v>
       </c>
       <c r="T2">
-        <v>0.005125062315651954</v>
+        <v>0.006422863959685539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.25485233333333</v>
+        <v>68.39263433333333</v>
       </c>
       <c r="H3">
-        <v>177.764557</v>
+        <v>205.177903</v>
       </c>
       <c r="I3">
-        <v>0.2826627756245408</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="J3">
-        <v>0.2826627756245408</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>3510.542744589034</v>
+        <v>4051.908945643437</v>
       </c>
       <c r="R3">
-        <v>31594.88470130131</v>
+        <v>36467.18051079093</v>
       </c>
       <c r="S3">
-        <v>0.2744790281164703</v>
+        <v>0.3403486700053688</v>
       </c>
       <c r="T3">
-        <v>0.2744790281164703</v>
+        <v>0.3403486700053688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.25485233333333</v>
+        <v>68.39263433333333</v>
       </c>
       <c r="H4">
-        <v>177.764557</v>
+        <v>205.177903</v>
       </c>
       <c r="I4">
-        <v>0.2826627756245408</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="J4">
-        <v>0.2826627756245408</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>39.12009301370156</v>
+        <v>76.71770495001356</v>
       </c>
       <c r="R4">
-        <v>352.080837123314</v>
+        <v>690.4593445501221</v>
       </c>
       <c r="S4">
-        <v>0.003058685192418514</v>
+        <v>0.006444066042914266</v>
       </c>
       <c r="T4">
-        <v>0.003058685192418513</v>
+        <v>0.006444066042914264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.49803233333333</v>
+        <v>68.39263433333333</v>
       </c>
       <c r="H5">
-        <v>79.494097</v>
+        <v>205.177903</v>
       </c>
       <c r="I5">
-        <v>0.1264032745503171</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="J5">
-        <v>0.1264032745503171</v>
+        <v>0.3534666604781518</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>29.312573833683</v>
+        <v>2.988917703180111</v>
       </c>
       <c r="R5">
-        <v>263.813164503147</v>
+        <v>26.900259328621</v>
       </c>
       <c r="S5">
-        <v>0.002291864068558284</v>
+        <v>0.000251060470183224</v>
       </c>
       <c r="T5">
-        <v>0.002291864068558284</v>
+        <v>0.000251060470183224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>79.494097</v>
       </c>
       <c r="I6">
-        <v>0.1264032745503171</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="J6">
-        <v>0.1264032745503171</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>1569.871014619674</v>
+        <v>29.625701081766</v>
       </c>
       <c r="R6">
-        <v>14128.83913157707</v>
+        <v>266.631309735894</v>
       </c>
       <c r="S6">
-        <v>0.1227436045395507</v>
+        <v>0.002488473481615835</v>
       </c>
       <c r="T6">
-        <v>0.1227436045395507</v>
+        <v>0.002488473481615836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>79.494097</v>
       </c>
       <c r="I7">
-        <v>0.1264032745503171</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="J7">
-        <v>0.1264032745503171</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>17.49401861182156</v>
+        <v>1569.871014619674</v>
       </c>
       <c r="R7">
-        <v>157.446167506394</v>
+        <v>14128.83913157707</v>
       </c>
       <c r="S7">
-        <v>0.001367805942208047</v>
+        <v>0.131864639377018</v>
       </c>
       <c r="T7">
-        <v>0.001367805942208046</v>
+        <v>0.131864639377018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.18947699999999</v>
+        <v>26.49803233333333</v>
       </c>
       <c r="H8">
-        <v>168.568431</v>
+        <v>79.494097</v>
       </c>
       <c r="I8">
-        <v>0.2680400491147056</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="J8">
-        <v>0.2680400491147056</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.106217</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N8">
-        <v>3.318651</v>
+        <v>3.365174</v>
       </c>
       <c r="O8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q8">
-        <v>62.15775467850899</v>
+        <v>29.72349648643089</v>
       </c>
       <c r="R8">
-        <v>559.4197921065809</v>
+        <v>267.511468377878</v>
       </c>
       <c r="S8">
-        <v>0.004859932305440823</v>
+        <v>0.002496688013668961</v>
       </c>
       <c r="T8">
-        <v>0.004859932305440823</v>
+        <v>0.002496688013668961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.18947699999999</v>
+        <v>26.49803233333333</v>
       </c>
       <c r="H9">
-        <v>168.568431</v>
+        <v>79.494097</v>
       </c>
       <c r="I9">
-        <v>0.2680400491147056</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="J9">
-        <v>0.2680400491147056</v>
+        <v>0.1369470717044821</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>59.24481466666666</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N9">
-        <v>177.734444</v>
+        <v>0.131107</v>
       </c>
       <c r="O9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q9">
-        <v>3328.935151081928</v>
+        <v>1.158025841708778</v>
       </c>
       <c r="R9">
-        <v>29960.41635973736</v>
+        <v>10.422232575379</v>
       </c>
       <c r="S9">
-        <v>0.2602796636902051</v>
+        <v>9.727083217928595E-05</v>
       </c>
       <c r="T9">
-        <v>0.2602796636902051</v>
+        <v>9.727083217928595E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.18947699999999</v>
+        <v>44.854201</v>
       </c>
       <c r="H10">
-        <v>168.568431</v>
+        <v>134.562603</v>
       </c>
       <c r="I10">
-        <v>0.2680400491147056</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="J10">
-        <v>0.2680400491147056</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6602006666666668</v>
+        <v>1.118034</v>
       </c>
       <c r="N10">
-        <v>1.980602</v>
+        <v>3.354102</v>
       </c>
       <c r="O10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q10">
-        <v>37.09633017505134</v>
+        <v>50.14852176083399</v>
       </c>
       <c r="R10">
-        <v>333.866971575462</v>
+        <v>451.336695847506</v>
       </c>
       <c r="S10">
-        <v>0.002900453119059734</v>
+        <v>0.004212331252504189</v>
       </c>
       <c r="T10">
-        <v>0.002900453119059734</v>
+        <v>0.004212331252504189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.689751</v>
+        <v>44.854201</v>
       </c>
       <c r="H11">
-        <v>38.069253</v>
+        <v>134.562603</v>
       </c>
       <c r="I11">
-        <v>0.06053378075210392</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="J11">
-        <v>0.06053378075210392</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.106217</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N11">
-        <v>3.318651</v>
+        <v>177.734444</v>
       </c>
       <c r="O11">
-        <v>0.01813136626967656</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P11">
-        <v>0.01813136626967656</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q11">
-        <v>14.037618281967</v>
+        <v>2657.378825266414</v>
       </c>
       <c r="R11">
-        <v>126.338564537703</v>
+        <v>23916.40942739773</v>
       </c>
       <c r="S11">
-        <v>0.001097560150504693</v>
+        <v>0.2232121602466638</v>
       </c>
       <c r="T11">
-        <v>0.001097560150504693</v>
+        <v>0.2232121602466638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.689751</v>
+        <v>44.854201</v>
       </c>
       <c r="H12">
-        <v>38.069253</v>
+        <v>134.562603</v>
       </c>
       <c r="I12">
-        <v>0.06053378075210392</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="J12">
-        <v>0.06053378075210392</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.24481466666666</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N12">
-        <v>177.734444</v>
+        <v>3.365174</v>
       </c>
       <c r="O12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q12">
-        <v>751.8019461611481</v>
+        <v>50.31406366532467</v>
       </c>
       <c r="R12">
-        <v>6766.217515450332</v>
+        <v>452.826572987922</v>
       </c>
       <c r="S12">
-        <v>0.05878118642379327</v>
+        <v>0.004226236295233279</v>
       </c>
       <c r="T12">
-        <v>0.05878118642379327</v>
+        <v>0.004226236295233279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.689751</v>
+        <v>44.854201</v>
       </c>
       <c r="H13">
-        <v>38.069253</v>
+        <v>134.562603</v>
       </c>
       <c r="I13">
-        <v>0.06053378075210392</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="J13">
-        <v>0.06053378075210392</v>
+        <v>0.2318153817356118</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.6602006666666668</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N13">
-        <v>1.980602</v>
+        <v>0.131107</v>
       </c>
       <c r="O13">
-        <v>0.01082096921202439</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P13">
-        <v>0.01082096921202439</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q13">
-        <v>8.377782070034002</v>
+        <v>1.960233243502333</v>
       </c>
       <c r="R13">
-        <v>75.40003863030601</v>
+        <v>17.642099191521</v>
       </c>
       <c r="S13">
-        <v>0.0006550341778059509</v>
+        <v>0.0001646539412105138</v>
       </c>
       <c r="T13">
-        <v>0.0006550341778059508</v>
+        <v>0.0001646539412105138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.99878833333334</v>
+        <v>13.45698066666667</v>
       </c>
       <c r="H14">
-        <v>164.996365</v>
+        <v>40.370942</v>
       </c>
       <c r="I14">
-        <v>0.2623601199583326</v>
+        <v>0.06954833751808624</v>
       </c>
       <c r="J14">
-        <v>0.2623601199583326</v>
+        <v>0.06954833751808623</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N14">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O14">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P14">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q14">
-        <v>60.84059463373502</v>
+        <v>15.045361922676</v>
       </c>
       <c r="R14">
-        <v>547.5653517036151</v>
+        <v>135.408257304084</v>
       </c>
       <c r="S14">
-        <v>0.004756947429520808</v>
+        <v>0.001263767026561116</v>
       </c>
       <c r="T14">
-        <v>0.004756947429520808</v>
+        <v>0.001263767026561116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.99878833333334</v>
+        <v>13.45698066666667</v>
       </c>
       <c r="H15">
-        <v>164.996365</v>
+        <v>40.370942</v>
       </c>
       <c r="I15">
-        <v>0.2623601199583326</v>
+        <v>0.06954833751808624</v>
       </c>
       <c r="J15">
-        <v>0.2623601199583326</v>
+        <v>0.06954833751808623</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>177.734444</v>
       </c>
       <c r="O15">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P15">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q15">
-        <v>3258.393021699563</v>
+        <v>797.2563255695831</v>
       </c>
       <c r="R15">
-        <v>29325.53719529606</v>
+        <v>7175.306930126248</v>
       </c>
       <c r="S15">
-        <v>0.2547641817482796</v>
+        <v>0.06696723290209221</v>
       </c>
       <c r="T15">
-        <v>0.2547641817482796</v>
+        <v>0.06696723290209219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.99878833333334</v>
+        <v>13.45698066666667</v>
       </c>
       <c r="H16">
-        <v>164.996365</v>
+        <v>40.370942</v>
       </c>
       <c r="I16">
-        <v>0.2623601199583326</v>
+        <v>0.06954833751808624</v>
       </c>
       <c r="J16">
-        <v>0.2623601199583326</v>
+        <v>0.06954833751808623</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N16">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O16">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P16">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q16">
-        <v>36.31023672352557</v>
+        <v>15.09502715265644</v>
       </c>
       <c r="R16">
-        <v>326.7921305117301</v>
+        <v>135.855244373908</v>
       </c>
       <c r="S16">
-        <v>0.002838990780532142</v>
+        <v>0.001267938762697372</v>
       </c>
       <c r="T16">
-        <v>0.002838990780532142</v>
+        <v>0.001267938762697371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.45698066666667</v>
+      </c>
+      <c r="H17">
+        <v>40.370942</v>
+      </c>
+      <c r="I17">
+        <v>0.06954833751808624</v>
+      </c>
+      <c r="J17">
+        <v>0.06954833751808623</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.131107</v>
+      </c>
+      <c r="O17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q17">
+        <v>0.588101454754889</v>
+      </c>
+      <c r="R17">
+        <v>5.292913092794</v>
+      </c>
+      <c r="S17">
+        <v>4.9398826735546E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.939882673554599E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>40.289199</v>
+      </c>
+      <c r="H18">
+        <v>120.867597</v>
+      </c>
+      <c r="I18">
+        <v>0.2082225485636681</v>
+      </c>
+      <c r="J18">
+        <v>0.208222548563668</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.118034</v>
+      </c>
+      <c r="N18">
+        <v>3.354102</v>
+      </c>
+      <c r="O18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q18">
+        <v>45.044694314766</v>
+      </c>
+      <c r="R18">
+        <v>405.402248832894</v>
+      </c>
+      <c r="S18">
+        <v>0.00378362446108583</v>
+      </c>
+      <c r="T18">
+        <v>0.00378362446108583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>40.289199</v>
+      </c>
+      <c r="H19">
+        <v>120.867597</v>
+      </c>
+      <c r="I19">
+        <v>0.2082225485636681</v>
+      </c>
+      <c r="J19">
+        <v>0.208222548563668</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.734444</v>
+      </c>
+      <c r="O19">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P19">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q19">
+        <v>2386.926127823452</v>
+      </c>
+      <c r="R19">
+        <v>21482.33515041107</v>
+      </c>
+      <c r="S19">
+        <v>0.2004949133615763</v>
+      </c>
+      <c r="T19">
+        <v>0.2004949133615762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>40.289199</v>
+      </c>
+      <c r="H20">
+        <v>120.867597</v>
+      </c>
+      <c r="I20">
+        <v>0.2082225485636681</v>
+      </c>
+      <c r="J20">
+        <v>0.208222548563668</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.365174</v>
+      </c>
+      <c r="O20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q20">
+        <v>45.193388318542</v>
+      </c>
+      <c r="R20">
+        <v>406.740494866878</v>
+      </c>
+      <c r="S20">
+        <v>0.003796114328726452</v>
+      </c>
+      <c r="T20">
+        <v>0.003796114328726451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>40.289199</v>
+      </c>
+      <c r="H21">
+        <v>120.867597</v>
+      </c>
+      <c r="I21">
+        <v>0.2082225485636681</v>
+      </c>
+      <c r="J21">
+        <v>0.208222548563668</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.131107</v>
+      </c>
+      <c r="O21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q21">
+        <v>1.760732004431</v>
+      </c>
+      <c r="R21">
+        <v>15.846588039879</v>
+      </c>
+      <c r="S21">
+        <v>0.0001478964122795252</v>
+      </c>
+      <c r="T21">
+        <v>0.0001478964122795252</v>
       </c>
     </row>
   </sheetData>
